--- a/Graficos y data Caso2 MelanySalas.xlsx
+++ b/Graficos y data Caso2 MelanySalas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estudianteccr-my.sharepoint.com/personal/dhnmelfer_estudiantec_cr/Documents/Documentos/TEC/III Semestre/Analisis de algoritmos/Casos/Caso2/Caso2MelanySalas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1422" documentId="8_{11668E90-3595-4F63-918F-A1F6182A0791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F39E5091-21AB-4BA3-BBC4-AA48EEBC9B8C}"/>
+  <xr:revisionPtr revIDLastSave="1429" documentId="8_{11668E90-3595-4F63-918F-A1F6182A0791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B008647B-432E-4766-991C-D68F3D008DC0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{2F1ED3F0-0125-4EF3-9718-465DC28973F3}"/>
   </bookViews>
@@ -134,9 +134,6 @@
     <t>Caso n*log(n)</t>
   </si>
   <si>
-    <t>n*log(n)</t>
-  </si>
-  <si>
     <t>Relacion de tiempo</t>
   </si>
   <si>
@@ -163,6 +160,29 @@
   <si>
     <t>Nota* Esta grafica va de 2000 en 2000, por eso los cambios se ven un poco "bruscos"</t>
   </si>
+  <si>
+    <r>
+      <t>n*log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(n)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -173,7 +193,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +233,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -394,7 +420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -446,9 +472,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -463,7 +486,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -496,15 +531,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -533,9 +559,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1806,52 +1829,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>3000</c:v>
+                  <c:v>9965.7842846620879</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6602.0599913279621</c:v>
+                  <c:v>21931.568569324176</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10431.363764158988</c:v>
+                  <c:v>34652.240356149727</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14408.23996531185</c:v>
+                  <c:v>47863.137138648352</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18494.850021680093</c:v>
+                  <c:v>61438.561897747255</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22668.907502301859</c:v>
+                  <c:v>75304.480712299453</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26915.686280099799</c:v>
+                  <c:v>89411.974447037835</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31224.719895935552</c:v>
+                  <c:v>103726.2742772967</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35588.182584953924</c:v>
+                  <c:v>118221.38357493961</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40000</c:v>
+                  <c:v>132877.1237954945</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44455.319536740477</c:v>
+                  <c:v>147677.37493629323</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48950.174952571499</c:v>
+                  <c:v>162608.96142459891</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>53481.263579988881</c:v>
+                  <c:v>177660.91203644132</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>58045.792499495336</c:v>
+                  <c:v>192823.9488940757</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>62641.368885835218</c:v>
+                  <c:v>208090.12320405911</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>67265.9197224948</c:v>
+                  <c:v>223452.54855459341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7285,8 +7308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1D9CBD-377A-44E1-9C3F-AA845A571B98}">
   <dimension ref="A1:V103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7315,50 +7338,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="33" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -7686,36 +7709,36 @@
       <c r="I15" s="5"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="39"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="27"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="30"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="33"/>
       <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="11" t="s">
         <v>7</v>
       </c>
@@ -7726,19 +7749,19 @@
         <v>8</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F35" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G35" s="21" t="s">
+      <c r="H35" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="I35" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="J35" s="14"/>
       <c r="T35" s="15"/>
@@ -7761,16 +7784,16 @@
         <v>0</v>
       </c>
       <c r="F36" s="5">
-        <f>PRODUCT(A36,LOG(A36))</f>
-        <v>3000</v>
-      </c>
-      <c r="G36" s="22">
+        <f>PRODUCT(A36,LOG(A36,2))</f>
+        <v>9965.7842846620879</v>
+      </c>
+      <c r="G36" s="21">
         <f>G38</f>
         <v>1.9900398406374502</v>
       </c>
       <c r="H36" s="5">
         <f t="shared" ref="H36:H50" si="0">F37/F36</f>
-        <v>2.2006866637759872</v>
+        <v>2.2006866637759877</v>
       </c>
       <c r="I36" s="5">
         <f t="shared" ref="I36:I50" si="1">D37-D36</f>
@@ -7795,16 +7818,16 @@
         <v>1054</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" ref="F37:F49" si="2">PRODUCT(A37,LOG(A37))</f>
-        <v>6602.0599913279621</v>
-      </c>
-      <c r="G37" s="22">
+        <f t="shared" ref="F37:F51" si="2">PRODUCT(A37,LOG(A37,2))</f>
+        <v>21931.568569324176</v>
+      </c>
+      <c r="G37" s="21">
         <f t="shared" ref="G37:G50" si="3">E38/E37</f>
         <v>0.95256166982922197</v>
       </c>
       <c r="H37" s="5">
         <f t="shared" si="0"/>
-        <v>1.5800165066450398</v>
+        <v>1.5800165066450393</v>
       </c>
       <c r="I37" s="5">
         <f t="shared" si="1"/>
@@ -7830,15 +7853,15 @@
       </c>
       <c r="F38" s="5">
         <f t="shared" si="2"/>
-        <v>10431.363764158988</v>
-      </c>
-      <c r="G38" s="22">
+        <v>34652.240356149727</v>
+      </c>
+      <c r="G38" s="21">
         <f t="shared" si="3"/>
         <v>1.9900398406374502</v>
       </c>
       <c r="H38" s="5">
         <f t="shared" si="0"/>
-        <v>1.3812422125299635</v>
+        <v>1.3812422125299639</v>
       </c>
       <c r="I38" s="5">
         <f t="shared" si="1"/>
@@ -7864,15 +7887,15 @@
       </c>
       <c r="F39" s="5">
         <f t="shared" si="2"/>
-        <v>14408.23996531185</v>
-      </c>
-      <c r="G39" s="22">
+        <v>47863.137138648352</v>
+      </c>
+      <c r="G39" s="21">
         <f t="shared" si="3"/>
         <v>0.50050050050050054</v>
       </c>
       <c r="H39" s="5">
         <f t="shared" si="0"/>
-        <v>1.2836300662819917</v>
+        <v>1.2836300662819919</v>
       </c>
       <c r="I39" s="5">
         <f t="shared" si="1"/>
@@ -7897,16 +7920,16 @@
         <v>1000</v>
       </c>
       <c r="F40" s="5">
-        <f>PRODUCT(A40,LOG(A40))</f>
-        <v>18494.850021680093</v>
-      </c>
-      <c r="G40" s="22">
+        <f t="shared" si="2"/>
+        <v>61438.561897747255</v>
+      </c>
+      <c r="G40" s="21">
         <f t="shared" si="3"/>
         <v>2.0009999999999999</v>
       </c>
       <c r="H40" s="5">
         <f t="shared" si="0"/>
-        <v>1.2256875549533433</v>
+        <v>1.225687554953343</v>
       </c>
       <c r="I40" s="5">
         <f t="shared" si="1"/>
@@ -7932,9 +7955,9 @@
       </c>
       <c r="F41" s="5">
         <f t="shared" si="2"/>
-        <v>22668.907502301859</v>
-      </c>
-      <c r="G41" s="22">
+        <v>75304.480712299453</v>
+      </c>
+      <c r="G41" s="21">
         <f t="shared" si="3"/>
         <v>1.0004997501249375</v>
       </c>
@@ -7966,9 +7989,9 @@
       </c>
       <c r="F42" s="5">
         <f t="shared" si="2"/>
-        <v>26915.686280099799</v>
-      </c>
-      <c r="G42" s="22">
+        <v>89411.974447037835</v>
+      </c>
+      <c r="G42" s="21">
         <f t="shared" si="3"/>
         <v>1.4980019980019981</v>
       </c>
@@ -8000,15 +8023,15 @@
       </c>
       <c r="F43" s="5">
         <f t="shared" si="2"/>
-        <v>31224.719895935552</v>
-      </c>
-      <c r="G43" s="22">
+        <v>103726.2742772967</v>
+      </c>
+      <c r="G43" s="21">
         <f t="shared" si="3"/>
         <v>1.334111370456819</v>
       </c>
       <c r="H43" s="5">
         <f t="shared" si="0"/>
-        <v>1.1397438537018343</v>
+        <v>1.1397438537018345</v>
       </c>
       <c r="I43" s="5">
         <f t="shared" si="1"/>
@@ -8034,15 +8057,15 @@
       </c>
       <c r="F44" s="5">
         <f t="shared" si="2"/>
-        <v>35588.182584953924</v>
-      </c>
-      <c r="G44" s="22">
+        <v>118221.38357493961</v>
+      </c>
+      <c r="G44" s="21">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H44" s="5">
         <f t="shared" si="0"/>
-        <v>1.1239686068406123</v>
+        <v>1.1239686068406121</v>
       </c>
       <c r="I44" s="5">
         <f t="shared" si="1"/>
@@ -8068,15 +8091,15 @@
       </c>
       <c r="F45" s="5">
         <f t="shared" si="2"/>
-        <v>40000</v>
-      </c>
-      <c r="G45" s="22">
+        <v>132877.1237954945</v>
+      </c>
+      <c r="G45" s="21">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H45" s="5">
         <f t="shared" si="0"/>
-        <v>1.111382988418512</v>
+        <v>1.1113829884185118</v>
       </c>
       <c r="I45" s="5">
         <f t="shared" si="1"/>
@@ -8102,9 +8125,9 @@
       </c>
       <c r="F46" s="5">
         <f t="shared" si="2"/>
-        <v>44455.319536740477</v>
-      </c>
-      <c r="G46" s="22">
+        <v>147677.37493629323</v>
+      </c>
+      <c r="G46" s="21">
         <f t="shared" si="3"/>
         <v>1.2494376405898526</v>
       </c>
@@ -8135,9 +8158,9 @@
       </c>
       <c r="F47" s="5">
         <f t="shared" si="2"/>
-        <v>48950.174952571499</v>
-      </c>
-      <c r="G47" s="22">
+        <v>162608.96142459891</v>
+      </c>
+      <c r="G47" s="21">
         <f t="shared" si="3"/>
         <v>1.001000200040008</v>
       </c>
@@ -8168,15 +8191,15 @@
       </c>
       <c r="F48" s="5">
         <f t="shared" si="2"/>
-        <v>53481.263579988881</v>
-      </c>
-      <c r="G48" s="22">
+        <v>177660.91203644132</v>
+      </c>
+      <c r="G48" s="21">
         <f t="shared" si="3"/>
         <v>0.79856115107913672</v>
       </c>
       <c r="H48" s="5">
         <f t="shared" si="0"/>
-        <v>1.0853481876448103</v>
+        <v>1.0853481876448106</v>
       </c>
       <c r="I48" s="5">
         <f t="shared" si="1"/>
@@ -8199,11 +8222,11 @@
       <c r="E49" s="1">
         <v>3996</v>
       </c>
-      <c r="F49" s="20">
+      <c r="F49" s="5">
         <f t="shared" si="2"/>
-        <v>58045.792499495336</v>
-      </c>
-      <c r="G49" s="22">
+        <v>192823.9488940757</v>
+      </c>
+      <c r="G49" s="21">
         <f t="shared" si="3"/>
         <v>1.0010010010010011</v>
       </c>
@@ -8233,10 +8256,10 @@
         <v>4000</v>
       </c>
       <c r="F50" s="5">
-        <f>PRODUCT(A50,LOG(A50))</f>
-        <v>62641.368885835218</v>
-      </c>
-      <c r="G50" s="22">
+        <f t="shared" si="2"/>
+        <v>208090.12320405911</v>
+      </c>
+      <c r="G50" s="21">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -8266,10 +8289,10 @@
         <v>4000</v>
       </c>
       <c r="F51" s="5">
-        <f>PRODUCT(A51,LOG(A51))</f>
-        <v>67265.9197224948</v>
-      </c>
-      <c r="G51" s="22">
+        <f t="shared" si="2"/>
+        <v>223452.54855459341</v>
+      </c>
+      <c r="G51" s="21">
         <f>T35/E51</f>
         <v>0</v>
       </c>
@@ -8277,7 +8300,7 @@
         <f>U35/F51</f>
         <v>0</v>
       </c>
-      <c r="I51" s="25"/>
+      <c r="I51" s="24"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M54" s="9"/>
@@ -8286,33 +8309,33 @@
       <c r="K64" s="9"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="27" t="s">
+      <c r="A72" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="26"/>
+      <c r="B72" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="28"/>
-      <c r="B73" s="23" t="s">
+      <c r="A73" s="31"/>
+      <c r="B73" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="24" t="s">
+      <c r="C73" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="24" t="s">
+      <c r="D73" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E73" s="24" t="s">
-        <v>36</v>
+      <c r="E73" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>7</v>
@@ -8324,7 +8347,7 @@
         <v>8</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -8618,17 +8641,17 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B103" s="50"/>
-      <c r="C103" s="50"/>
-      <c r="D103" s="50"/>
-      <c r="E103" s="50"/>
-      <c r="F103" s="50"/>
-      <c r="G103" s="50"/>
-      <c r="H103" s="50"/>
-      <c r="I103" s="50"/>
+      <c r="A103" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B103" s="29"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="29"/>
+      <c r="I103" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8696,7 +8719,7 @@
       <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="44" t="s">
@@ -8713,7 +8736,7 @@
       <c r="I3" s="49"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="10" t="s">
         <v>26</v>
       </c>
@@ -8736,7 +8759,7 @@
         <v>8</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -9026,7 +9049,7 @@
         <v>199990000</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
